--- a/DOC/結合テスト/契約情報管理結合テスト_エビデンス.xlsx
+++ b/DOC/結合テスト/契約情報管理結合テスト_エビデンス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ems\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C35225-2A48-4067-AFCF-B8259CF3C3FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5602AB9D-DC3A-486A-9250-B6E50E28065E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No.1～No.4" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>No.5全エラーメッセージチェック</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>No.4検索</t>
+  </si>
+  <si>
+    <t>２回目</t>
   </si>
 </sst>
 </file>
@@ -1927,6 +1930,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259861</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600087</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>136253</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601DD04F-A2F3-43C7-B8D2-DCB3828C0CE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="869461" y="6012180"/>
+          <a:ext cx="5217026" cy="5645513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6568,8 +6615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37D3849-DA6E-4582-B262-E80C19DA5C3D}">
   <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6581,6 +6628,11 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="1"/>
@@ -6872,8 +6924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA22931D-4023-4F37-8901-137CA8EB6843}">
   <dimension ref="A2:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
